--- a/1.1P-Worklog_Jasdeep .xlsx
+++ b/1.1P-Worklog_Jasdeep .xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kaurjasdee.homes.deakin.edu.au\my-home\UserData\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaurjasdee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE07E29-14EF-487A-BAB2-B8AD2632283F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD31A53-4350-4005-A117-078AD12C5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="81">
   <si>
     <t>Student Name</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Worked on research presentation/ artefact submission</t>
+  </si>
+  <si>
+    <t>Worked on final research report submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on editing  final research report </t>
   </si>
 </sst>
 </file>
@@ -700,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="59" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="59" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2258,6 +2264,121 @@
       </c>
       <c r="G67" s="7" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="5">
+        <v>44472</v>
+      </c>
+      <c r="E68">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="5">
+        <v>44474</v>
+      </c>
+      <c r="E69">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="5">
+        <v>44476</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="5">
+        <v>44478</v>
+      </c>
+      <c r="E71">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="5">
+        <v>44479</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2399,6 +2520,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F91A6F9DB61C7A45BED08E943CE76CDB" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8e7f53c33be68033672446c1e6efa23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01b46ff2-420f-42c8-8583-78d94109e361" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfdeac3786ae83719fa373dd0d32d08c" ns2:_="">
     <xsd:import namespace="01b46ff2-420f-42c8-8583-78d94109e361"/>
@@ -2530,22 +2666,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FB1FFC3-B1E9-4426-A852-9D9BC12D3CD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2561,21 +2699,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>